--- a/docs/visual layout.xlsx
+++ b/docs/visual layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/dev/johnnydecimal/appv3.johnnydecimal.com/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73A5C6D-C9E8-A741-80D2-E4F0A93A0560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588F8655-47F5-4A41-971D-8DE24173E509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{2D206053-44A9-AC4C-BBF0-ECC31ACF3509}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{2D206053-44A9-AC4C-BBF0-ECC31ACF3509}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="45">
   <si>
     <t>-</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>full view - build me first</t>
+  </si>
+  <si>
+    <t>the underlined thing is the selected thing; clicking it does nothing</t>
   </si>
 </sst>
 </file>
@@ -855,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDA0B21-BA63-1A43-8151-BEF00948C354}">
   <dimension ref="D2:DO124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.83203125" defaultRowHeight="15"/>
@@ -1681,7 +1684,9 @@
       <c r="CH10" s="1"/>
     </row>
     <row r="11" spans="4:119">
-      <c r="D11" s="1"/>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
